--- a/file.xlsx
+++ b/file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,64 +511,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Data Scientist Level III</t>
+          <t>2024 University Graduate - Data Scientist</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Employer Provided Salary:$100K</t>
+          <t>Employer Provided Salary:$83K - $153K</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
-        <is>
-          <t>Role: Data Scientist Level III
-Client: HHS (Department of Health &amp; Human Services)
-Type: Permanent
-Duration: Remote
-Responsibilities / Functional Description:
-Able to do what Data Analysts can do as well as conduct more advanced analyses, e.g., predictive models, quasi-causal analyses, qualitative analyses, and advanced machine learning methods.
-Able to develop and deliver data capacity building content for internal non-technical audiences, including 1:1 mentorship and formal trainings, written references. Fluent in at least SQL and R or Python.</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>4.4 ★</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Arch Systems, LLC</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Remote</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2024 University Graduate - Data Scientist</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Employer Provided Salary:$83K - $153K</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
         <is>
           <t>Our Company
 Changing the world through digital experiences is what Adobe’s all about. We give everyone—from emerging artists to global brands—everything they need to design and deliver exceptional digital experiences! We’re passionate about empowering people to create beautiful and powerful images, videos, and apps, and transform how companies interact with customers across every screen.
@@ -597,22 +548,84 @@
 Adobe values a free and open marketplace for all employees and has policies in place to ensure that we do not enter into illegal agreements with other companies to not recruit or hire each other’s employees.</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>4.4 ★</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Adobe
 4.4</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>San Jose, CA</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>10000+ Employees</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Company - Public</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Computer Hardware Development</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Information Technology</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>$5 to $10 billion (USD)</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Remote Data Scientist</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Pay Transparency Statement:
+The compensation philosophy reflects the Company's reasonable expectation at the time of posting. We consider a number of factors when making individual compensation decisions including, but not limited to, skill sets, experience and training, and other business needs. This role may also be eligible to participate in a discretionary incentive program, subject to the rule governing the program.
+Position Summary:
+The Data Scientist is part of a Global Data and Analytics Center of Excellence, which provides design, development, consulting, and support services to various international markets. The Data Scientist will analyze data to identify relevant patterns and trends that can be leveraged to improve our business. Using these insights, the role will develop and implement advanced analytics solutions that deliver significant cost savings and/or drive new business opportunities for the organization.</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>4.4 ★</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>The Infosoft Group</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -628,15 +641,64 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Data Scientist Level III</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Employer Provided Salary:$100K</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Role: Data Scientist Level III
+Client: HHS (Department of Health &amp; Human Services)
+Type: Permanent
+Duration: Remote
+Responsibilities / Functional Description:
+Able to do what Data Analysts can do as well as conduct more advanced analyses, e.g., predictive models, quasi-causal analyses, qualitative analyses, and advanced machine learning methods.
+Able to develop and deliver data capacity building content for internal non-technical audiences, including 1:1 mentorship and formal trainings, written references. Fluent in at least SQL and R or Python.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4.4 ★</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Arch Systems, LLC</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Data Scientist – Entry Level 2024</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Employer Provided Salary:$71K - $133K</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Introduction
 Ranked by Forbes as one of the world’s best employers in 2022, IBM promotes growth and innovation to lead as we enter the era of hybrid cloud and AI – helping clients transform their business.
@@ -650,74 +712,53 @@
 Opportunities are available in: Atlanta GA, Boston MA, Chicago IL, Dallas TX, New York NY, San Francisco CA, and Washington DC – to name a few.</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>4.4 ★</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>IBM
 3.9</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Atlanta, GA</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Data Scientist</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Job Overview
-A Data Scientist at ExploreLearning helps millions of children learn math and science by participating in the creation, improvement, and analysis of our award-winning, game-based, adaptive education products. You will take a dynamic role in establishing the pedagogical AI underlying our games, allowing them to produce individualized experiences for learners. Our ideal candidate will have a background in learning analytics and machine learning, and a passion for helping children learn math and science.
-Job Responsibilities
-o Use, maintain and develop our in-house AI system to sculpt the behavior of games so they properly adapt to individual learners while ensuring that activity-specific pedagogical requirements are achieved
-o Evaluate user-generated logs to develop insights into the experiences of users
-o Distill and present these findings, along with recommendations for improvement, to designers and other stakeholders</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.4 ★</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cambium Learning Group
-4.3</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Remote</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>10000+ Employees</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1911</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Company - Public</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Information Technology Support Services</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Information Technology</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>$10+ billion (USD)</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -726,19 +767,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>Environmental Data Scientist I</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Employer Provided Salary:$141K - $254K</t>
+          <t>Employer Provided Salary:$75K - $80K</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>POSITION: Senior Data Scientist
-JOB Location: 208 S. Akard Street, Dallas, TX 75202 [and various unanticipated locations throughout the U.S.; may work from home]
-Duties: AT&amp;T Services, Inc. is looking for a Senior Data Scientist in Dallas, TX [and various unanticipated locations throughout the U.S.; may work from home] to be responsible for the automation of the resultant models designing and implementing processes and layouts for complex, large-scale data sets used for modeling, data mining, and research purposes, as well as the automation of the resultant models. Work closely with IT, Sales and Marketing organizations functional leads to formulate hypothetical insights and work through the lifecycle of delivering these insights to production. Design and build large and complex data sets, from spurious sources while thinking strategically about uses of data and how data use interacts with data design. Design and implement statistical data quality procedures around new data sources and the automation of the resultant models. Perform data studies and data discovery around new data sources or new uses for existing data sources. Implement software required for accessing and handling data appropriately. Implement and hand off data checking and updating procedures to teams. Perform statistical analyses with existing data sets in statistical packages. Visualize and report data findings creatively in a variety of visual formats that appropriately provides insights to the organization. Research and implement software and hardware related to mobile technology.</t>
+          <t>Battelle delivers when others can’t. We conduct research and development, manage national laboratories, design and manufacture products and deliver critical services for our clients—whether they are a multi-national corporation, a small start-up or a government agency.
+We recognize and appreciate the value and contributions of individuals with diverse backgrounds and experiences and welcome all qualified individuals to apply.
+Company Overview
+Battelle manages and operates the National Ecological Observatory Network (NEON) program, which is solely funded by the National Science Foundation. A 30+ year project dedicated to understanding how changes in climate, land use and invasive species impact ecology, the observatory’s scientists and engineers are collecting a comprehensive range of ecological data on a continental scale across 20 eco-climatic domains representing US ecosystems. Our teams use cutting-edge technology, including an airborne observation platform that captures images of regional landscapes and vegetation; mobile, relocatable, and fixed data collection sites with automated ground sensors to monitor soil and atmosphere; and trained field crews who observe and sample populations of diverse organisms and collect soil and water data. Once structures are completed, a leading-edge cyberinfrastructure will calibrate, store and publish this information. The Observatory includes more than 500+ personnel and is the first of its kind designed to detect and enable forecasting of ecological change at continental scales.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -748,22 +790,46 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>AT&amp;T
-3.6</t>
+          <t>Battelle
+3.9</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dallas, TX</t>
+          <t>Boulder, CO</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1001 to 5000 Employees</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Nonprofit Organization</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Research &amp; Development</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Management &amp; Consulting</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>$5 to $10 billion (USD)</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -787,7 +853,9 @@
 Practical knowledge in Python Machine Learning and Data Visualization
 Practical knowledge in Data ETL such as working with: Data loading from SQL, CSV, JSON, Excel, etc., Web scraping (Beautiful Soup, Scrapy, etc.) and Data Wrangling/Cleaning
 Experience using the Unix command line.
-Proficiency in statistical packages using any of the following: Python, R, STATA, SPSS, etc.</t>
+Proficiency in statistical packages using any of the following: Python, R, STATA, SPSS, etc.
+You’re Required To Have This
+Looking for junior, mid and senior-level data scientists</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -806,12 +874,24 @@
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Company - Public</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Unknown / Non-Applicable</t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -820,57 +900,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>data scientist - multiple openings</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>Data Scientist, Analytics</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Employer Provided Salary:$150K - $175K</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
-        <is>
-          <t>Now Brewing – Data Scientist! #tobeapartner
-From the beginning, Starbucks set out to be a different kind of company. One that not only celebrated coffee and the rich tradition, but that also brought a feeling of connection. We are known for developing extraordinary leaders who share this passion and are guided by their service to others.
-As a Data Scientist on the Data, Analytics, Insights, and Business Operations team, you will work cross-functionally with data engineers, data scientists, business experts, and external vendors to help Starbucks make decisions better by using data and analytics. You will use your experience with forecasting, automating ETL processes, and designing and building analytical models using structured or unstructured data. You will work directly with business partners and technology teams from problem identification to solution. You will quickly become an expert in one of our key business and data domains (Supply Chain, People Analytics, Marketing, or Store) and work cross functionally in an analytics center of excellence to improve existing processes or analytical approaches</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.4 ★</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Starbucks
-3.7</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Data Scientist, Analytics</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Employer Provided Salary:$150K - $175K</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
         <is>
           <t>About Us:
 At Parafin, our mission is to grow small businesses. Small businesses are the backbone of our economy, yet banks do not have their back. Parafin is a technology company that builds infrastructure which enables small businesses to get easy access to financial services via platforms they sell on.
@@ -878,29 +916,124 @@
 We are backed by prominent venture capitalists such as Ribbit Capital, Thrive Capital, GIC, Index Ventures, Green Oaks Capital, and SV Angel.</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>4.4 ★</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Parafin
 4.7</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>San Francisco, CA</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>51 to 200 Employees</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Company - Private</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Financial Transaction Processing</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Unknown / Non-Applicable</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Data Scientist, Analytics</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Employer Provided Salary:$150K - $175K</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>About Us:
+At Parafin, our mission is to grow small businesses. Small businesses are the backbone of our economy, yet banks do not have their back. Parafin is a technology company that builds infrastructure which enables small businesses to get easy access to financial services via platforms they sell on.
+Parafin's first product offers capital-as-a-service for online platforms. Parafin currently powers the capital programs of platforms ranging from Series B to post-IPO companies such as DoorDash, Amazon, and Worldpay. We are a tight-knit team of engineers and designers, coming from organizations such as Stripe, Square, Plaid, Coinbase, Robinhood, Affirm, Uber, and CERN, and are excited both about helping hundreds of thousands of small businesses grow and thrive, and building products that leaders at top companies have started to use every day.
+We are backed by prominent venture capitalists such as Ribbit Capital, Thrive Capital, GIC, Index Ventures, Green Oaks Capital, and SV Angel.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>4.4 ★</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Parafin
+4.7</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>San Francisco, CA</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>51 to 200 Employees</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Company - Private</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Financial Transaction Processing</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Unknown / Non-Applicable</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -943,12 +1076,32 @@
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1 to 50 Employees</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Company - Public</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Accounting &amp; Tax</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Unknown / Non-Applicable</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -957,16 +1110,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Remote Data Scientist</t>
+          <t>data scientist - multiple openings</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Pay Transparency Statement:
-The compensation philosophy reflects the Company's reasonable expectation at the time of posting. We consider a number of factors when making individual compensation decisions including, but not limited to, skill sets, experience and training, and other business needs. This role may also be eligible to participate in a discretionary incentive program, subject to the rule governing the program.
-Position Summary:
-The Data Scientist is part of a Global Data and Analytics Center of Excellence, which provides design, development, consulting, and support services to various international markets. The Data Scientist will analyze data to identify relevant patterns and trends that can be leveraged to improve our business. Using these insights, the role will develop and implement advanced analytics solutions that deliver significant cost savings and/or drive new business opportunities for the organization.</t>
+          <t>Now Brewing – Data Scientist! #tobeapartner
+From the beginning, Starbucks set out to be a different kind of company. One that not only celebrated coffee and the rich tradition, but that also brought a feeling of connection. We are known for developing extraordinary leaders who share this passion and are guided by their service to others.
+As a Data Scientist on the Data, Analytics, Insights, and Business Operations team, you will work cross-functionally with data engineers, data scientists, business experts, and external vendors to help Starbucks make decisions better by using data and analytics. You will use your experience with forecasting, automating ETL processes, and designing and building analytical models using structured or unstructured data. You will work directly with business partners and technology teams from problem identification to solution. You will quickly become an expert in one of our key business and data domains (Supply Chain, People Analytics, Marketing, or Store) and work cross functionally in an analytics center of excellence to improve existing processes or analytical approaches</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -976,17 +1128,46 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>The Infosoft Group</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
+          <t>Starbucks
+3.7</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>10000+ Employees</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Company - Public</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Restaurants &amp; Cafes</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Restaurants &amp; Food Service</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>$10+ billion (USD)</t>
+        </is>
+      </c>
       <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -995,20 +1176,64 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Environmental Data Scientist I</t>
+          <t>Sr Data Scientist</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Employer Provided Salary:$75K - $80K</t>
+          <t>$114K - $155K (Glassdoor est.)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Battelle delivers when others can’t. We conduct research and development, manage national laboratories, design and manufacture products and deliver critical services for our clients—whether they are a multi-national corporation, a small start-up or a government agency.
-We recognize and appreciate the value and contributions of individuals with diverse backgrounds and experiences and welcome all qualified individuals to apply.
-Company Overview
-Battelle manages and operates the National Ecological Observatory Network (NEON) program, which is solely funded by the National Science Foundation. A 30+ year project dedicated to understanding how changes in climate, land use and invasive species impact ecology, the observatory’s scientists and engineers are collecting a comprehensive range of ecological data on a continental scale across 20 eco-climatic domains representing US ecosystems. Our teams use cutting-edge technology, including an airborne observation platform that captures images of regional landscapes and vegetation; mobile, relocatable, and fixed data collection sites with automated ground sensors to monitor soil and atmosphere; and trained field crews who observe and sample populations of diverse organisms and collect soil and water data. Once structures are completed, a leading-edge cyberinfrastructure will calibrate, store and publish this information. The Observatory includes more than 500+ personnel and is the first of its kind designed to detect and enable forecasting of ecological change at continental scales.</t>
+          <t>IT is different here. Our work as technology specialists pushes the boundaries of what’s possible in health care. You will build solutions that make a real difference in people’s lives. Driven by the importance of their work, our team members innovate to elevate. We’re encouraged to be curious, collaborate, and turn ideas into solutions that can make health care better for all.
+In this role you will identify, implement, and deliver accurate and quality analyses that translate data in sound organizational decisions. You will be critical in building out our NLP capabilities.
+If you are ready to make a career out of making a difference, then you are the person for this team.
+What You Will Do
+Own delivery of large and/or complex data science and engineering projects
+Lead in the development and testing of hypotheses across all functional data sets
+Lead requirements gathering sessions with business and technical staff to distill technical requirement from business requests
+Define and implement integrated data models, allowing integration of data from multiple sources
+Design and develop scalable, efficient data pipeline processes to handle data ingestion, cleansing, transformation, integration, and validation
+Define and implement data stores based on system requirements and consumer requirements
+Design and develop models to understand and solve complex business solutions using a variety of methods including data mining, statistical analysis, predictive modeling and analysis, stochastic modeling, pattern recognition, probability analysis, and network analysis
+Design and implement production models leveraging technologies such as Python, and R
+Leverage existing data sets and engineer new data sets including development of SQL queries, data integration and resolution of data quality issues
+Apply advanced conceptual understanding of Big Data systems to data set engineering and analytic model implementation
+Lead reviews of analytic models and algorithms
+Identify actionable insights, suggest recommendations, and influence business direction by effectively communicating results to cross functional groups
+Document and test analytic processes including performance and thorough data validation and verification
+What You Bring
+Master's Degree in Data Science, Applied Mathematics, Computer science, Statistics, Biostatistics, Epidemiology, Health Services Research, or a field closely related to Data Science specialization, or equivalent combination of transferrable experience and education
+5 years of the following with increasing scope of project responsibilities:
+SQL programming (Advance SQL programming)
+Demonstrated experience with design and implementation of analytic models and methodologies for new applications
+Proficiency in Python
+Advanced experience working with large and complex data sets to develop regression and classification models.
+Deep knowledge of state-of-the art techniques in machine learning, statistics, optimization or related fields Demonstrated experience in successfully delivering data science projects.
+Great to Have
+Experience with Python analytics packages such as scikit-learn, NumPy, Pandas etc.
+Experience leveraging NLP
+Experience preparing data for analysis
+Exposure to clinical, healthcare, or insurance data
+Experience with Hadoop, Hive, and/or other Big Data technologies
+Experience working in AWS and/or using Linux based systems
+Expert at the execution of implementing models and methodologies on big data
+Demonstrated experience performing data validation on prepared data sets
+Familiarity with deep-learning modeling techniques and their application
+Experience in software engineering practices and software development methodologies
+Ability to communicate clearly and effectively both orally and in writing
+Ability to work independently
+Reliable task estimation skills
+Excellent quantitative, problem solving and analytic skills
+Ability to document data discovery findings, feature selection process, model determination process, and interpretation of insights
+Ability to collaborate effectively with business stakeholders, performance consultants, data scientists, and other data engineers
+Proficient in use of MS Office applications, including expert level Excel programming
+Ability to quickly become expert in operational processes and data of lines of business
+Ability to troubleshoot and document findings and recommendations
+Comfortable briefing internal stakeholders on findings
+Proactively communicate risks and problems to leadership
+Ability to keep up with a rapidly evolving technology space</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1018,22 +1243,46 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Battelle
-3.9</t>
+          <t>Blue Cross and Blue Shield of North Carolina
+4.2</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Boulder, CO</t>
+          <t>Durham, NC</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>5001 to 10000 Employees</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>1933</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Company - Private</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Insurance Carriers</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Insurance</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>$5 to $10 billion (USD)</t>
+        </is>
+      </c>
       <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -1042,15 +1291,599 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Data Scientist (L5), Member Product</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Los Gatos, California
+Data Science and Engineering
+At Netflix, we seek to entertain the world. We have more than 200 million members in 190 countries, reflecting that great stories can come from anywhere and be loved everywhere. Within Product, we have a very high velocity in innovations in the member experience. We never stop challenging ourselves and are constantly thinking about connecting with our members in new ways or even in new domains!
+Member Product DSE is at the forefront of these innovations with a mission to relentlessly improve Netflix member experience within our streaming and new verticals services across TV, Mobile &amp; Web by surfacing insights. The team collaborates extensively with Product and Engineering teams to identify, incubate and enable product innovations leveraging robust measurement techniques (analytics, experimentation, modeling) and scalable tooling.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>4.4 ★</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Netflix
+4.2</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Los Gatos, CA</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>5001 to 10000 Employees</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Company - Public</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Internet &amp; Web Services</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Information Technology</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>$5 to $10 billion (USD)</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Employer Provided Salary:$85K</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Details
+Department: Workforce Planning and Analytics
+Schedule: Full Time, 8-hour day shift, Monday - Friday
+Location: Remote
+Benefits
+Paid time off (PTO)
+Various health insurance options &amp; wellness plans
+Retirement benefits including employer match plans
+Long-term &amp; short-term disability
+Employee assistance programs (EAP)
+Parental leave &amp; adoption assistance
+Tuition reimbursement
+Ways to give back to your community</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>4.4 ★</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Ascension
+3.4</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>10000+ Employees</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>1902</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Nonprofit Organization</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Health Care Services &amp; Hospitals</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Unknown / Non-Applicable</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>$89K - $123K (Glassdoor est.)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Who May Apply
+Job Opening: 46673. Job Posting Title: Data Scientist Open to ALL U.S. Citizens. Are you interested in a career supporting investigative and intelligence operations at America’s premier national security and law enforcement agency? Do you have experience or the desire to provide program support in the areas of data research and analysis? As a Data Scientist you will serve as a business innovator and provide support to law enforcement, national security and administrative functions across the FBI. Data Scientists will use scientific and mathematical processes to convert large datasets into more efficient databases for business needs.
+All current U.S. citizens may apply. This posting will close on 11/30/2023 at 11:59 PM EST. Questions regarding this opening should be directed to at 202-324-7155 or rlwhite@fbi.gov. This posting will be used to fill multiple vacancies in the Washington, D.C. area as well as Clarksburg, WV, as well as Huntsville, AL. Will vary depending on Division needs. Will vary depending on Division needs. $58,465.00 - $76,000.00. $70,075.00 - $91,101.00. $83,328.00 - $108,324.00. $98,468.00 - $128,008.00. GS-14.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>4.4 ★</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Federal Bureau of Investigation
+4.1</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Washington, DC</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>10000+ Employees</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>1908</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Government</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>National Agencies</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Government &amp; Public Administration</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Unknown / Non-Applicable</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Data Scientist, Growth and Marketing</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Company Description
+Dropbox is a special place where we are all seeking to fulfill our mission to design a more enlightened way of working. We’re looking for innovative talent to join us on our journey. The words shared by our founders at the start of Dropbox still ring true today.
+Wouldn’t it be great if our working environment—and the tools we use—were designed with people’s actual needs in mind? Imagine if every minute at work were well spent—if we could focus and spend our time on the things that matter. This is possible, and Dropbox is connecting the dots.
+The nearly 3,000 Dropboxers around the world have helped make Dropbox a living workspace - the place where people come together and their ideas come to life. Our 700+ million global users have been some of our best salespeople, and they have helped us acquire customers with incredible efficiency. As a result, we reached a billion dollar revenue run rate faster than any software-as-a-service company in history.
+Dropbox is making the dream of a fulfilling and seamless work life a reality. We hope you’ll join us on the journey.
+Team Description
+Our Product team advocates for our users and our business, setting the vision for our growing family of products. We use data, research, strategy, and empathy to guide multidisciplinary teams toward a common goal, balancing diverse perspectives and empowering our teams to do great work. As we scale globally, there’s plenty of space for you to grow alongside us and simplify life for millions of people around the world in team that always focuses on we, not I, and creates delightful products that are worthy of trust.
+Role Description
+We're looking for a Data Scientist to partner with revenue, marketing, and product teams to answer key questions about how to grow revenue, optimize product, scale and monetize the business, and launch high-impact initiatives. We solve challenging problems and boost business growth through a deep understanding of user behaviors with applied analytics techniques and business insights. An ideal candidate should have robust knowledge of consumer lifecycle and behavior analysis, customer segmentation, digital campaigns, monetization analytics and business operations for a SaaS company.
+Responsibilities
+Develop a deep understanding of customer journey phases and key business metrics
+Perform analytical deep-dives to analyze problems and opportunities, identify the hypothesis and design &amp; execute experiments
+Inform future experimentation design and roadmaps by performing exploratory analysis to understand user engagement behavior and derive insights
+Create personalized segmentation strategies leveraging propensity models to enable targeting of offers and experiences based on user attributes
+Identify key trends and build automated reporting &amp; executive-facing dashboards to track the progress of acquisition, monetization, and engagement trends.
+Extract actionable insights through analyzing large, complex, multi-dimensional customer behavior data sets
+Monitor and analyze a high volume of experiments designed to optimize the product for user experience and revenue &amp; promote best practices for multivariate experiments
+Translate complex concepts into implications for the business via excellent communication skills, both verbal and written
+Understand what matters most and prioritize ruthlessly
+Work with cross-functional teams (including Data Science, Marketing, Product, Engineering, Design, User Research, and senior executives) to rapidly execute and iterate
+Requirements
+Statistics, Applied Mathematics, Economics, Computer Science, Engineering, or related field
+3-5 years experience using analytics to drive key business decisions; examples include business/product/marketing analytics, business intelligence, strategy consulting
+Proven track record of being able to work independently and proactively engage with business stakeholders with minimal direction
+Significant experience with SQL and large unstructured datasets such as Hadoop
+Deep understanding of statistical analysis, experimentation design, and common analytical techniques like regression, decision trees
+Solid background in running multivariate experiments to optimize a product or revenue flow
+Strong verbal and written communication skills
+Proficiency in programming/scripting and knowledge of statistical packages like R or Python is a plus
+Total Rewards
+Dropbox takes a number of factors into account when determining individual starting pay, including job and level they are hired into, location/metropolitan area, skillset, and peer compensation. We target most new hire offers between the minimum up to the middle of the range.
+Salary/OTE is just one component of Dropbox’s total rewards package. All regular employees are also eligible for the corporate bonus program or a sales incentive (target included in OTE) as well as stock in the form of Restricted Stock Units (RSUs).
+Dropbox uses the zip code of an employee’s remote work location to determine which metropolitan pay range we use. Current US Zone locations are as follows:
+Dropbox is committed to investing in the holistic health and wellbeing of all Dropboxers and their families. Our benefits and perks programs include, but are not limited to:
+Competitive medical, dental and vision coverage
+(US Only) Competitive 401(k) Plan with a generous company match and immediate vesting
+Flexible Time Off/Paid Time Off, paid holidays, Volunteer time off and more
+Protection Plans including; Life Insurance, Disability Insurance and Travel benefit plans
+Perks Allowance to be used on what matters most to you, whether that’s wellness, learning and development, food &amp; groceries, and much more
+Parental benefits including; Parental Leave, Child and Adult Care, Day Care FSA (US Only), Fertility Benefits (US Only), Adoption and Surrogacy support and Lactation Support
+Mental Health and Wellness benefits Free Dropbox space for your friends and family
+Additional benefits details are available upon request.
+Dropbox is an equal opportunity employer. We are a welcoming place for everyone, and we do our best to make sure all people feel supported and connected at work. A big part of that effort is our support for members and allies of internal groups like Asians at Dropbox, BlackDropboxers, Latinx, Pridebox (LGBTQ), Vets at Dropbox, Women at Dropbox, ATX Diversity (based in Austin, Texas) and the Dropbox Empowerment Network (based in Dublin, Ireland).</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>4.4 ★</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Dropbox
+4.5</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1001 to 5000 Employees</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Company - Private</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Computer Hardware Development</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Information Technology</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Unknown / Non-Applicable</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Data Analyst/Data Scientist</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Greetings
+I am seeking for technical consultant like you or someone in your network who may be interested in the opportunity below.
+I am currently seeking to fill IT Analyst (Data Analyst)/Data Scientist for one of our direct client and this position is (100% REMOTE) model role. Consultant Support Proven experience in data analysis and ability to write queries and visualize data and Expert level experience in Splunk, Power BI, and SQL/SSRS.
+If you are a team player that is eager to support a growing organization while contributing to company success, apply today!
+If you are interested in this opportunity, please send me your updated resume and a good time to connect today!</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>4.4 ★</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>SMK Soft Inc</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Jr Data Scientist</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Job Title
+Jr Data Scientist
+Location
+US (Primary)
+Category
+Finance
+Job Type
+Full-time
+Education
+Bachelor's Degree
+Security Clearance Required
+Public Trust
+Job Description</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>4.4 ★</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Infotrend
+3.6</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1 to 50 Employees</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Company - Private</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Information Technology Support Services</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Information Technology</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>$5 to $25 million (USD)</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Bioinformatics Data Scientist</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Employer Provided Salary:$80K - $125K</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Posting Information
+Department
+Renaissance Computing Inst-637100
+Career Area
+Information Technology
+Posting Open Date
+09/14/2023
+Application Deadline
+09/28/2023</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>4.4 ★</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>University of North Carolina at Chapel Hill
+4.0</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Chapel Hill, NC</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1 to 50 Employees</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>College / University</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Colleges &amp; Universities</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>$1 to $5 million (USD)</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Senior Data Scientist</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Employer Provided Salary:$141K - $254K</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>POSITION: Senior Data Scientist
+JOB Location: 208 S. Akard Street, Dallas, TX 75202 [and various unanticipated locations throughout the U.S.; may work from home]
+Duties: AT&amp;T Services, Inc. is looking for a Senior Data Scientist in Dallas, TX [and various unanticipated locations throughout the U.S.; may work from home] to be responsible for the automation of the resultant models designing and implementing processes and layouts for complex, large-scale data sets used for modeling, data mining, and research purposes, as well as the automation of the resultant models. Work closely with IT, Sales and Marketing organizations functional leads to formulate hypothetical insights and work through the lifecycle of delivering these insights to production. Design and build large and complex data sets, from spurious sources while thinking strategically about uses of data and how data use interacts with data design. Design and implement statistical data quality procedures around new data sources and the automation of the resultant models. Perform data studies and data discovery around new data sources or new uses for existing data sources. Implement software required for accessing and handling data appropriately. Implement and hand off data checking and updating procedures to teams. Perform statistical analyses with existing data sets in statistical packages. Visualize and report data findings creatively in a variety of visual formats that appropriately provides insights to the organization. Research and implement software and hardware related to mobile technology.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>4.4 ★</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>AT&amp;T
+3.6</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Dallas, TX</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>10000+ Employees</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>1876</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Company - Public</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Telecommunications Services</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Telecommunications</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>$10+ billion (USD)</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>Data Scientist (Omics data analysis (genetics, genomics and proteomics))</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Employer Provided Salary:$51.00 - $52.00 Per Hour</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Job Description:
 Responsibilities:
@@ -1060,177 +1893,54 @@
 Experience with machine learning in the context of causal inference, so that the predictive models are more than just a black box, is strongly desired.</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>4.4 ★</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Tellus Solutions
 3.7</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Remote</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Data Scientist I</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>$92K - $121K (Glassdoor est.)</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Develop decision support systems, manage their implementation, and provide support and maintenance. Define system scope, objectives and requirements based on standards and guidance from architects and senior team members. Collaborate with other IT partners within the company. Interact with internal customers to identify business requirements and develop the best course of actions to meet their needs.
-Activities and Responsibilities
-Use data science and analytics techniques to develop and maintain models that provide business with actionable insights to enable service excellence, drive efficiencies, profitable growth and improve cash flows.
-Collaborate with team members, departmental managers, information engineers and software developers to gather requirements and work towards delivering complete analytics/reporting solutions that help improve organizational decision making.</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.4 ★</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>CSX
-2.9</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Jacksonville, FL</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Remote - Data Scientist</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Employer Provided Salary:$79K - $120K</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>We’re looking for talented professionals, anywhere in the United States, to join us in bringing smart money management and payment solutions to everyone’s fingertips.
-At Green Dot, we are evolving to a new and permanent “Work from Anywhere” model designed to maximize the benefits of remote work, promote and enable a strong culture of performance and connectedness, and attract the best and brightest talent who align with our entrepreneurial spirit and mission.
-&lt;&lt;&gt;&gt;&lt;&lt;&gt;&gt;&lt;&lt;&gt;&gt;&lt;&lt;&gt;&gt;&lt;&lt;&gt;&gt;&lt;&lt;&gt;&gt;&lt;&lt;&gt;&gt;&lt;&lt;&gt;&gt;&lt;&lt;&gt;&gt;&lt;&lt;&gt;&gt;
-JOB DESCRIPTION
-This is an exciting opportunity to apply data science techniques and drive growth and revenue of Green Dot’s Business, Enterprise-wide. Our data science team works on several projects across the entire company including Churn Modelling and Customer Scoring for Marketing efforts, Revenue Prediction Modeling for Accounting and Finance and Cash Advance Customer Modeling for our Award-Winning Tax Products.
-We are looking for candidates who are passionate about leveraging data science techniques to solve business problems and supplying stakeholders with actionable insights/decisions. The ideal candidate must be a self-starter who is able to deliver high quality work within tight deadlines and potentially propose/develop innovative solutions as well. The candidate will be reporting to the Lead Data Scientist within our Data Analytics department.
-Regular
-The targeted base salary for this position is $78,800 to $120,200 per year. The final compensation will be determined by a number of factors such as qualifications, expertise, and the candidate’s geographical location.</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4.4 ★</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Green Dot Corporation
-3.1</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Remote</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Data Scientist, New Content Formats</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>$90K - $140K (Glassdoor est.)</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Content
-Data Science
-Spotify’s mission is to unlock the potential of human creativity by giving a million creative artists the opportunity to live off their art and billions of fans the opportunity to enjoy and be inspired by these creators. Everything we do is driven by our love for innovating the world of audio and expression. Today, we are the world’s most popular audio streaming subscription service with a community of more than 515 million users.
-Location
-New York
-Job type</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.4 ★</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Spotify
-4.0</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>New York, NY</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>51 to 200 Employees</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Company - Private</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Information Technology Support Services</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Information Technology</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>$5 to $25 million (USD)</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
